--- a/data/trans_bre/P5_7-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Estudios-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>-2,2</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>6,88</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,06%</t>
+          <t>-2,24%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>7,65%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 2,37</t>
+          <t>-7,26; 1,71</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-3,02; 15,25</t>
+          <t>-1,92; 32,76</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 2,44</t>
+          <t>-7,34; 1,75</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 18,34</t>
+          <t>-1,98; 50,06</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,16</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>1,15</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>1,18%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,58; 1,76</t>
+          <t>0,31; 4,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 1,9</t>
+          <t>-0,43; 3,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 1,84</t>
+          <t>0,31; 5,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 1,96</t>
+          <t>-0,43; 3,27</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,75</t>
+          <t>0,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-0,59</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,57%</t>
+          <t>-0,61%</t>
         </is>
       </c>
     </row>
@@ -729,29 +729,29 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 2,85</t>
+          <t>-3,0; 3,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 1,64</t>
+          <t>-3,46; 2,8</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,24; 2,97</t>
+          <t>-3,06; 3,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 1,69</t>
+          <t>-3,51; 2,98</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,12</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,12%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>-1,28%</t>
         </is>
       </c>
     </row>
@@ -789,30 +789,98 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,81; 1,49</t>
+          <t>-1,45; 1,56</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,34; 2,57</t>
+          <t>-3,27; 0,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,53</t>
+          <t>-1,48; 1,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,37; 2,7</t>
+          <t>-3,34; 0,59</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,36%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-0,82; 1,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,04; 3,12</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-0,83; 1,63</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-1,06; 3,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>

--- a/data/trans_bre/P5_7-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P5_7-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-2,2</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>6,88</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-2,24%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>7,65%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-2.195747450983265</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>5.715452478381899</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>-0.02235458781854869</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>0.0627113570567904</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-7,26; 1,71</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-1,92; 32,76</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-7,34; 1,75</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-1,98; 50,06</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.264751258739663</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-1.904330938625444</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.07338418029513707</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.01925069916070828</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1.706027492482389</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>27.9018773718884</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>0.01754896482200109</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>0.400555062239925</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>2,05</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>1,15</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>2,1%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>1,18%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 4,97</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 3,13</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,31; 5,24</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-0,43; 3,27</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>2.046134200158467</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>1.714787198731593</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.02101228694359469</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.01762107314969659</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,15</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,59</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,16%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,61%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>0.3111727796126787</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1250942948452704</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>0.003138552631082963</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.001252368164498571</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-3,0; 3,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,46; 2,8</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,06; 3,78</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 2,98</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>4.969567729604817</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>4.961178935365758</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.05240752554880735</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.05285449732248716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,132 +716,139 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>0,12</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>0,12%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>-1,28%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.150807054962121</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.600907711064159</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.001558197560356538</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>-0.01644744576801369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,45; 1,56</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-3,27; 0,58</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-1,48; 1,62</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,34; 0,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.99828065250176</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-5.714560623951319</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.03056857037812989</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.05803101427467025</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.605367542705087</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>1.416294981640254</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.03782705843583391</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.01437212546684402</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>0,33</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>0,35</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,34%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,36%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-0,82; 1,58</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-1,04; 3,12</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-0,83; 1,63</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-1,06; 3,31</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>0.6389101918488849</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>1.151041495237037</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.006565161723962624</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.01195103131254292</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.1140330440991</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.8101492542272616</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.01133425903942963</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.008278910140289718</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>2.437929401859306</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>4.734125912551431</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.02536879558695818</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.05113853580129019</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
